--- a/src/test/java/apachePOI/resource/_ApachePOIWriteInTheExcel.xlsx
+++ b/src/test/java/apachePOI/resource/_ApachePOIWriteInTheExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>Apache POI</t>
   </si>
@@ -968,7 +968,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,6 +991,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resource/_ApachePOIWriteInTheExcel.xlsx
+++ b/src/test/java/apachePOI/resource/_ApachePOIWriteInTheExcel.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9600" windowHeight="14010" activeTab="1"/>
+    <workbookView windowWidth="9600" windowHeight="13980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Apache POI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>Apache POI</t>
   </si>
@@ -23,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -968,31 +981,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="C1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="4:4">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="D4" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
